--- a/صيدليات دكتور مصطفي طلعت_2026-01-09_13-42.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-09_13-42.xlsx
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>SOLOFRESH 0.2% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
   </si>
   <si>
     <t>TARGOFLOXIN 750 MG 10 F.C.TABS.</t>
@@ -1285,17 +1288,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>282</v>
+        <v>62</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1303,7 +1306,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1317,11 +1320,11 @@
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>60</v>
+        <v>282</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1343,7 +1346,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1363,13 +1366,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1381,7 +1384,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1389,13 +1392,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1407,7 +1410,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1415,51 +1418,77 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" ht="24.75" customHeight="1">
+      <c r="A31" s="6">
+        <v>28</v>
+      </c>
+      <c t="s" r="B31" s="7">
+        <v>45</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c t="s" r="H31" s="8">
+        <v>46</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="9">
+        <v>8</v>
+      </c>
+      <c r="M31" s="9"/>
+      <c t="s" r="N31" s="7">
         <v>23</v>
       </c>
     </row>
-    <row r="31" ht="25.5" customHeight="1">
-      <c r="K31" s="10">
-        <v>2109.5799999999999</v>
-      </c>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="11">
-        <v>46</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c t="s" r="F32" s="12">
+    <row r="32" ht="26.25" customHeight="1">
+      <c r="K32" s="10">
+        <v>2171.5799999999999</v>
+      </c>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="11">
         <v>47</v>
       </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="13"/>
-      <c t="s" r="I32" s="14">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c t="s" r="F33" s="12">
         <v>48</v>
       </c>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="13"/>
+      <c t="s" r="I33" s="14">
+        <v>49</v>
+      </c>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="95">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1548,10 +1577,13 @@
     <mergeCell ref="B30:G30"/>
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="I33:N33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
